--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607270.3388949985</v>
+        <v>538836.4254468089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554235</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>202.2946864288971</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>9.357836733174469</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488213</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>90.99360837528192</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>133.6140637568171</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>78.41404262324743</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>83.59830597394803</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>61.26173891949077</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705984</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1821,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903385</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>322.9246134994785</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7778803536989</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>27.37301815329036</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>151.123136175929</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>164.6242057717103</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>230.263497954106</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>116.930934506138</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>117.5864309727544</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>136.1916198885554</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7190248369986</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>352.0426595656933</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>22.03885654827553</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>363.9756731087687</v>
       </c>
       <c r="C29" t="n">
-        <v>115.3010325189718</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.28266751616624</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>108.048107843294</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>201.4688598622673</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.8179123113443</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>26.43914838264651</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>374.2396978389534</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>263.5610135320061</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>236.581820230434</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.98991138064243</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>261.6781362235536</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>302.1297585584153</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>56.49576810820431</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>308.9734542191751</v>
       </c>
       <c r="E44" t="n">
-        <v>354.3958624239608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>12.84584032841748</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,19 +4439,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="K5" t="n">
         <v>122.2961490211351</v>
@@ -4576,43 +4576,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686975</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759365</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185846</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424085</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424085</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425124</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425124</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425124</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425124</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984125</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543126</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543126</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="K6" t="n">
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.8095319084025</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972847</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106355</v>
       </c>
       <c r="U6" t="n">
-        <v>752.4182005328623</v>
+        <v>735.8335372470247</v>
       </c>
       <c r="V6" t="n">
-        <v>752.4182005328623</v>
+        <v>500.6814290152819</v>
       </c>
       <c r="W6" t="n">
-        <v>508.9694238887622</v>
+        <v>257.232652371182</v>
       </c>
       <c r="X6" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564921</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021271</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792568</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014786</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021271</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>462.1513342039856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>315.6167762308706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.146815977588</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="C11" t="n">
-        <v>1004.183115213127</v>
+        <v>962.0987983716311</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.183115213127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5074,19 +5074,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W11" t="n">
-        <v>2289.351746278602</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.885988017522</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525.74665604171</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>138.3857151273827</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E13" t="n">
-        <v>138.3857151273827</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F13" t="n">
-        <v>138.3857151273827</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G13" t="n">
-        <v>138.3857151273827</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036446</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583426</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036446</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,10 +5296,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5308,10 +5308,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
         <v>1662.48357412947</v>
@@ -5320,10 +5320,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982761</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224644</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5354,19 +5354,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.276983312403</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810047</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1563.476704221264</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C17" t="n">
-        <v>1563.476704221264</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D17" t="n">
-        <v>1563.476704221264</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>1177.68845162302</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>766.7025468334123</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
@@ -5545,22 +5545,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V17" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W17" t="n">
-        <v>1563.476704221264</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X17" t="n">
-        <v>1563.476704221264</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y17" t="n">
-        <v>1563.476704221264</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.59249510651634</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>336.2769833124032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>336.2769833124032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>336.2769833124032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>81.59249510651634</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>81.59249510651634</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>81.59249510651634</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.59249510651634</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.23243129246</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="C20" t="n">
-        <v>1375.269914352048</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D20" t="n">
-        <v>1017.004215745297</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>631.2159631470531</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>220.2300583574456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V20" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y20" t="n">
-        <v>2130.832271356581</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="21">
@@ -5813,16 +5813,16 @@
         <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5843,13 +5843,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036446</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>743.484820983793</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C23" t="n">
-        <v>743.484820983793</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>743.484820983793</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>743.484820983793</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>743.484820983793</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>325.5210128819799</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
         <v>2224.752638628377</v>
@@ -6028,13 +6028,13 @@
         <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1893.689751284806</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1520.223993023727</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y23" t="n">
-        <v>1130.084661047915</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>338.4002221349974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>338.4002221349974</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>338.4002221349974</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>191.5102746370871</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1933.544000781331</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C26" t="n">
-        <v>1564.58148384092</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.315785234169</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E26" t="n">
-        <v>820.5275326359249</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F26" t="n">
-        <v>409.5416278463173</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="27">
@@ -6302,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.892406545185</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="C29" t="n">
-        <v>1369.426717132083</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D29" t="n">
-        <v>1011.161018525332</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X29" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y29" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843237</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>53.94298182036446</v>
@@ -6554,13 +6554,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5404311598019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036446</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>984.6750962183016</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C32" t="n">
-        <v>615.71257927789</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>257.4468806711395</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>257.4468806711395</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6721,31 +6721,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.880026519315</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W32" t="n">
-        <v>2134.880026519315</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X32" t="n">
-        <v>1761.414268258235</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y32" t="n">
-        <v>1371.274936282423</v>
+        <v>2105.048665729206</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6776,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1639.851790143458</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="C35" t="n">
-        <v>1270.889273203046</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>912.6235745962956</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
         <v>534.603677789272</v>
@@ -6934,16 +6934,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.851790143458</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>1639.851790143458</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1580.775345511217</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1211.812828570805</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1211.812828570805</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.812828570805</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>800.8269237811974</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7271,7 +7271,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>677.6341242259873</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C40" t="n">
-        <v>508.6979412980804</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>358.5813018857447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2423.485734520778</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C41" t="n">
-        <v>2054.523217580367</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W41" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X41" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y41" t="n">
-        <v>2423.485734520778</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="42">
@@ -7508,13 +7508,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073964</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U43" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C44" t="n">
-        <v>770.1842990371763</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D44" t="n">
-        <v>411.9186004304258</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7748,22 +7748,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245972</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U46" t="n">
-        <v>224.6669506791651</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V46" t="n">
-        <v>211.6913543878343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W46" t="n">
-        <v>211.6913543878343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X46" t="n">
-        <v>211.6913543878343</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.6913543878343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631346</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221033</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374762</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348233</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.2266798397541</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>128.7168118008101</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>216.5835453478003</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326072</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124222</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>46.34990878792871</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>231.6588280141905</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>276.2689989974355</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.57258286784712</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>321.4721027439898</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>82.46735232787606</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>59.80922816400204</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>184.0062896670961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8738029453375</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>231.6107054875515</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>249.1599642490847</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9919488199109</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787175</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>206.9918382582191</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>252.1446697057146</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>31.11818237049553</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>263.5538669340089</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>61.74151045510166</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5766164699368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>18.75816855471186</v>
       </c>
       <c r="C29" t="n">
-        <v>249.9718592520358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.5493126657711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>274.6857338201866</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>205.4071858794442</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>93.21719314673996</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>338.833743388361</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.690672233308362</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>150.2231564887888</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>112.659148486979</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.8420688012949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822156</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>121.055705439927</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>52.55328306226761</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>99.67512073359083</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>45.70958740150786</v>
       </c>
       <c r="E44" t="n">
-        <v>27.53450764830103</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,7 +26040,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26073,25 +26073,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>181.7172520189442</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>239.2918029954105</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
   </sheetData>
@@ -26331,19 +26331,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="I2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26355,7 +26355,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26447,19 +26447,19 @@
         <v>27086.83710496504</v>
       </c>
       <c r="L4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="M4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
+        <v>27086.83710496503</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27086.83710496503</v>
+      </c>
+      <c r="P4" t="n">
         <v>27086.83710496504</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27086.83710496504</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27086.83710496503</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376167</v>
@@ -26481,28 +26481,28 @@
         <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21404.43048286279</v>
+        <v>-33622.44110290319</v>
       </c>
       <c r="C6" t="n">
-        <v>59365.001048685</v>
+        <v>47146.99042864454</v>
       </c>
       <c r="D6" t="n">
-        <v>59365.00104868494</v>
+        <v>47146.99042864451</v>
       </c>
       <c r="E6" t="n">
-        <v>-277842.4011987644</v>
+        <v>-283910.8149445837</v>
       </c>
       <c r="F6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="G6" t="n">
-        <v>155003.7728442315</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="H6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="I6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="J6" t="n">
-        <v>91943.83024512546</v>
+        <v>85875.41649930621</v>
       </c>
       <c r="K6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="L6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="M6" t="n">
-        <v>47030.41217017347</v>
+        <v>40961.99842435426</v>
       </c>
       <c r="N6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="O6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="P6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
@@ -26773,10 +26773,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26792,7 +26792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="D4" t="n">
         <v>241.0142888776591</v>
@@ -26801,28 +26801,28 @@
         <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798013</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538836.4254468089</v>
+        <v>599671.9003585092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554241</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="W2" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>202.2946864288971</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488213</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>90.90725545139047</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>78.41404262324743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>213.3057743961281</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553064</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.6638564154455</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>89.06613335611756</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.26173891949077</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>293.2696210889239</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.84244993117485</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.9246134994785</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>197.2366938434405</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.123136175929</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>334.0315833763884</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>230.263497954106</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>296.6461980997987</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>117.5864309727544</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>101.7190248369986</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>10.16516783205995</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.03885654827553</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>363.9756731087687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>78.14136292469556</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>117.1560086992564</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>108.048107843294</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>61.90720464566307</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>131.8179123113443</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>26.43914838264651</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>331.7493528766291</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>92.00803688215818</v>
+        <v>140.8171000393984</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>137.9780124260797</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>236.581820230434</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>261.6781362235536</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>113.9495684430218</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>113.9615837039752</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>129.0246247964035</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>169.6269039556348</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>308.9734542191751</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7177065691261</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543126</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
         <v>122.2961490211351</v>
@@ -4576,43 +4576,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686975</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759365</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185846</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424085</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424085</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>749.6274730425124</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>749.6274730425124</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>749.6274730425124</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>749.6274730425124</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984125</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543126</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543126</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363992</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084025</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972847</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106355</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470247</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152819</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>257.232652371182</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564921</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>46.59526811792568</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004834</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021271</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X8" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,22 +4910,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4992,13 +4992,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.061315312043</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C11" t="n">
-        <v>962.0987983716311</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500976</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843237</v>
+        <v>2212.181128500976</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573123</v>
+        <v>2212.181128500976</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.061315312043</v>
+        <v>2212.181128500976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1331.061315312043</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747038</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692483</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423994</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G13" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>857.6950425204218</v>
+        <v>1404.597857825386</v>
       </c>
       <c r="C14" t="n">
-        <v>857.6950425204218</v>
+        <v>1035.635340884975</v>
       </c>
       <c r="D14" t="n">
-        <v>857.6950425204218</v>
+        <v>677.3696422782241</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.714918859356</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y14" t="n">
-        <v>919.5755868835438</v>
+        <v>1404.597857825386</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5354,7 +5354,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5369,13 +5369,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5384,16 +5384,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>139.6424261952886</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>286.5323736931989</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>286.5323736931989</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5323736931989</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>286.5323736931989</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1568.353113282533</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>1568.353113282533</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>1894.539591564834</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X17" t="n">
-        <v>1894.539591564834</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y17" t="n">
-        <v>1894.539591564834</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5706,13 +5706,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>766.9259543826058</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="C20" t="n">
-        <v>766.9259543826058</v>
+        <v>1700.959030454822</v>
       </c>
       <c r="D20" t="n">
-        <v>766.9259543826058</v>
+        <v>1700.959030454822</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.714918859356</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y20" t="n">
-        <v>919.5755868835442</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1422.14692331494</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="F23" t="n">
         <v>625.3727659270879</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X23" t="n">
-        <v>1422.14692331494</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y23" t="n">
-        <v>1422.14692331494</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6068,49 +6068,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1465.195303554219</v>
+        <v>433.1733450557862</v>
       </c>
       <c r="C26" t="n">
-        <v>1362.448813819877</v>
+        <v>64.21082811537451</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W26" t="n">
-        <v>1838.661061815299</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X26" t="n">
-        <v>1465.195303554219</v>
+        <v>1209.91251709572</v>
       </c>
       <c r="Y26" t="n">
-        <v>1465.195303554219</v>
+        <v>819.773185119908</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.643533783874</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C29" t="n">
-        <v>1689.643533783874</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.377835177124</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2387.012244241982</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2387.012244241982</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843237</v>
+        <v>2387.012244241982</v>
       </c>
       <c r="W29" t="n">
-        <v>2057.295728843237</v>
+        <v>2387.012244241982</v>
       </c>
       <c r="X29" t="n">
-        <v>2057.295728843237</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y29" t="n">
-        <v>2057.295728843237</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036446</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U31" t="n">
-        <v>598.044640063212</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V31" t="n">
-        <v>343.3601518573251</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1995.909162857192</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
         <v>882.8926947117852</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2579.587871603602</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2579.587871603602</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990286</v>
+        <v>2325.826086241693</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990286</v>
+        <v>1994.763198898123</v>
       </c>
       <c r="W32" t="n">
-        <v>2478.514423990286</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X32" t="n">
-        <v>2105.048665729206</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y32" t="n">
-        <v>2105.048665729206</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036446</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W34" t="n">
-        <v>380.6911546495019</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>919.5755868835442</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C35" t="n">
-        <v>892.8693763960225</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X35" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y35" t="n">
-        <v>919.5755868835442</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940987</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E37" t="n">
-        <v>430.0992512117056</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F37" t="n">
-        <v>283.2093037137952</v>
+        <v>353.9308493771256</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7213,13 +7213,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1642.146705571109</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X38" t="n">
-        <v>1268.68094731003</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y38" t="n">
-        <v>1268.68094731003</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7268,10 +7268,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1226.657559460833</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C41" t="n">
-        <v>857.6950425204218</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D41" t="n">
         <v>857.6950425204218</v>
@@ -7402,61 +7402,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W41" t="n">
-        <v>1881.118241157406</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X41" t="n">
-        <v>1881.118241157406</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1490.978909181595</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447963</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447963</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>169.0556926324606</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>169.0556926324606</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>169.0556926324606</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>597.8010803716834</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1580.775345511217</v>
+        <v>1314.552099519291</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.775345511217</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631346</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221033</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747081</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10840,10 +10840,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266928</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757331</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.2884486374762</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.725383157348233</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.2266798397541</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.7168118008101</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326072</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>160.7877277095291</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>276.2689989974355</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>172.9321642599255</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>136.6435220329196</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>321.4721027439898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>88.6607489833379</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>82.46735232787606</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.80922816400204</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>189.0012448126131</v>
       </c>
     </row>
     <row r="18">
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.6107054875515</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>47.89878669587341</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>56.01837628787175</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>110.2298476419128</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>252.1446697057146</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>61.59151271539454</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96.50703242634988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24414,10 +24414,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>263.5538669340089</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>344.517873788623</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>126.5766164699368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.75816855471186</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>138.3069574329622</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>169.3669896373346</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.6857338201866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>112.5085081633085</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>93.21719314673996</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>338.833743388361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>75.12669286508236</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.30176537689273</v>
+        <v>26.49270221965256</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>244.7558292374009</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>112.659148486979</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3082678822156</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>121.055705439927</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>272.2883702130317</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>53.34821855507572</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>213.1069377078458</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>45.70958740150786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>181.7172520189442</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>123.9919488199111</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484507</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="16">
@@ -26322,19 +26322,19 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="I2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26346,13 +26346,13 @@
         <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.1740429959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.360674058</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26453,10 +26453,10 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="O4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
         <v>27086.83710496504</v>
@@ -26472,13 +26472,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26487,13 +26487,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26502,13 +26502,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290319</v>
+        <v>-22626.23154486678</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668093</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864451</v>
+        <v>58143.19998668093</v>
       </c>
       <c r="E6" t="n">
-        <v>-283910.8149445837</v>
+        <v>-278449.2425733462</v>
       </c>
       <c r="F6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="G6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930621</v>
+        <v>91336.98887054341</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="M6" t="n">
-        <v>40961.99842435426</v>
+        <v>46423.5707955917</v>
       </c>
       <c r="N6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="O6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,28 +26792,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798013</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,7 +35260,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O13" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
